--- a/price_2in1.xlsx
+++ b/price_2in1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents-Writings\MCM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A64EB2-0BAF-42C3-A348-DCB2C904B520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008A20B2-F5B4-4C74-BC48-862A7D8AD14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C77ED7E0-A27C-44F9-BD25-FE9F7E7BCD7B}"/>
   </bookViews>
@@ -117,62 +117,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="2400" b="1"/>
-              <a:t>Daily Prices</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -193,7 +138,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -7850,7 +7795,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -15799,6 +15744,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1479777087"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -15813,6 +15759,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80474789335543584"/>
+          <c:y val="1.5124557279199327E-2"/>
+          <c:w val="0.17245910050717345"/>
+          <c:h val="4.8290408966440948E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16433,16 +16389,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>569259</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>94130</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>143436</xdr:rowOff>
+      <xdr:rowOff>161365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>340659</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>44825</xdr:rowOff>
+      <xdr:colOff>475130</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16770,7 +16726,7 @@
   <dimension ref="A1:C1266"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
